--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value118.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value118.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.026827559314204</v>
+        <v>0.4935314059257507</v>
       </c>
       <c r="B1">
-        <v>1.801220088573091</v>
+        <v>1.227790951728821</v>
       </c>
       <c r="C1">
-        <v>4.306865323263413</v>
+        <v>4.366623878479004</v>
       </c>
       <c r="D1">
-        <v>2.492807814869447</v>
+        <v>1.323935866355896</v>
       </c>
       <c r="E1">
-        <v>1.000696731149415</v>
+        <v>1.169966578483582</v>
       </c>
     </row>
   </sheetData>
